--- a/Desktop/SYIKIN/251124 Digest/251124 SPL GH.xlsx
+++ b/Desktop/SYIKIN/251124 Digest/251124 SPL GH.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gunasama\Desktop\SYIKIN\251124 Digest\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{382C094C-3E2A-4BC8-8932-72813BB36383}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6FE2E93-1F9B-4BCA-B9DF-7A01AF55AF3B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12720" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TITAN" sheetId="3" r:id="rId1"/>
@@ -1509,6 +1509,183 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="166" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="27" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="165" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="24" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="25" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="167" fontId="10" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="167" fontId="2" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1590,181 +1767,34 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="24" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="25" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="167" fontId="10" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="27" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="166" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1778,36 +1808,6 @@
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2316,10 +2316,10 @@
           </xdr:nvGrpSpPr>
           <xdr:grpSpPr>
             <a:xfrm>
-              <a:off x="4531681" y="897177"/>
-              <a:ext cx="1840543" cy="346787"/>
-              <a:chOff x="5019301" y="923328"/>
-              <a:chExt cx="2078184" cy="229184"/>
+              <a:off x="4531683" y="897178"/>
+              <a:ext cx="1840542" cy="346787"/>
+              <a:chOff x="5019303" y="923328"/>
+              <a:chExt cx="2078183" cy="229184"/>
             </a:xfrm>
           </xdr:grpSpPr>
           <xdr:sp macro="" textlink="">
@@ -2339,7 +2339,7 @@
             <xdr:spPr bwMode="auto">
               <a:xfrm>
                 <a:off x="5939529" y="927230"/>
-                <a:ext cx="304805" cy="215576"/>
+                <a:ext cx="304804" cy="215576"/>
               </a:xfrm>
               <a:prstGeom prst="rect">
                 <a:avLst/>
@@ -2385,7 +2385,7 @@
             </xdr:nvSpPr>
             <xdr:spPr bwMode="auto">
               <a:xfrm>
-                <a:off x="5019301" y="923328"/>
+                <a:off x="5019303" y="923328"/>
                 <a:ext cx="304607" cy="229184"/>
               </a:xfrm>
               <a:prstGeom prst="rect">
@@ -2432,7 +2432,7 @@
             </xdr:nvSpPr>
             <xdr:spPr bwMode="auto">
               <a:xfrm>
-                <a:off x="6792684" y="927231"/>
+                <a:off x="6792685" y="927231"/>
                 <a:ext cx="304801" cy="215576"/>
               </a:xfrm>
               <a:prstGeom prst="rect">
@@ -2902,8 +2902,8 @@
           </xdr:nvGrpSpPr>
           <xdr:grpSpPr>
             <a:xfrm>
-              <a:off x="4741233" y="897177"/>
-              <a:ext cx="1840541" cy="346787"/>
+              <a:off x="4741233" y="897178"/>
+              <a:ext cx="1840542" cy="346787"/>
               <a:chOff x="5019313" y="923328"/>
               <a:chExt cx="2078170" cy="229184"/>
             </a:xfrm>
@@ -3610,7 +3610,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H29"/>
   <sheetViews>
-    <sheetView view="pageLayout" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" view="pageLayout" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="G22" sqref="G22"/>
     </sheetView>
   </sheetViews>
@@ -3626,58 +3626,58 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="32.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="52" t="s">
+      <c r="A1" s="111" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="53"/>
-      <c r="C1" s="53"/>
-      <c r="D1" s="53"/>
-      <c r="E1" s="53"/>
-      <c r="F1" s="53"/>
-      <c r="G1" s="53"/>
-      <c r="H1" s="54"/>
+      <c r="B1" s="112"/>
+      <c r="C1" s="112"/>
+      <c r="D1" s="112"/>
+      <c r="E1" s="112"/>
+      <c r="F1" s="112"/>
+      <c r="G1" s="112"/>
+      <c r="H1" s="113"/>
     </row>
     <row r="2" spans="1:8" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="55" t="s">
+      <c r="A2" s="114" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="56"/>
-      <c r="C2" s="57"/>
-      <c r="D2" s="58" t="s">
+      <c r="B2" s="115"/>
+      <c r="C2" s="116"/>
+      <c r="D2" s="117" t="s">
         <v>56</v>
       </c>
-      <c r="E2" s="59"/>
-      <c r="F2" s="59"/>
-      <c r="G2" s="59"/>
-      <c r="H2" s="60"/>
+      <c r="E2" s="118"/>
+      <c r="F2" s="118"/>
+      <c r="G2" s="118"/>
+      <c r="H2" s="119"/>
     </row>
     <row r="3" spans="1:8" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="61" t="s">
+      <c r="A3" s="120" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="62"/>
-      <c r="C3" s="63"/>
-      <c r="D3" s="64" t="s">
+      <c r="B3" s="121"/>
+      <c r="C3" s="122"/>
+      <c r="D3" s="123" t="s">
         <v>46</v>
       </c>
-      <c r="E3" s="65"/>
-      <c r="F3" s="65"/>
-      <c r="G3" s="65"/>
-      <c r="H3" s="66"/>
+      <c r="E3" s="124"/>
+      <c r="F3" s="124"/>
+      <c r="G3" s="124"/>
+      <c r="H3" s="125"/>
     </row>
     <row r="4" spans="1:8" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="67" t="s">
+      <c r="A4" s="126" t="s">
         <v>54</v>
       </c>
-      <c r="B4" s="68"/>
-      <c r="C4" s="68"/>
-      <c r="D4" s="68"/>
-      <c r="E4" s="68"/>
-      <c r="F4" s="72" t="s">
+      <c r="B4" s="127"/>
+      <c r="C4" s="127"/>
+      <c r="D4" s="127"/>
+      <c r="E4" s="127"/>
+      <c r="F4" s="131" t="s">
         <v>42</v>
       </c>
-      <c r="G4" s="72"/>
-      <c r="H4" s="73"/>
+      <c r="G4" s="131"/>
+      <c r="H4" s="132"/>
     </row>
     <row r="5" spans="1:8" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="27" t="s">
@@ -3688,176 +3688,176 @@
       <c r="D5" s="9"/>
       <c r="E5" s="9"/>
       <c r="F5" s="10"/>
-      <c r="G5" s="50" t="s">
+      <c r="G5" s="109" t="s">
         <v>55</v>
       </c>
-      <c r="H5" s="51"/>
+      <c r="H5" s="110"/>
     </row>
     <row r="6" spans="1:8" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="69" t="s">
+      <c r="A6" s="128" t="s">
         <v>3</v>
       </c>
-      <c r="B6" s="70"/>
-      <c r="C6" s="70"/>
-      <c r="D6" s="70"/>
-      <c r="E6" s="71"/>
+      <c r="B6" s="129"/>
+      <c r="C6" s="129"/>
+      <c r="D6" s="129"/>
+      <c r="E6" s="130"/>
       <c r="F6" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="G6" s="74" t="s">
+      <c r="G6" s="89" t="s">
         <v>11</v>
       </c>
-      <c r="H6" s="75"/>
+      <c r="H6" s="90"/>
     </row>
     <row r="7" spans="1:8" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="126" t="s">
+      <c r="A7" s="50" t="s">
         <v>4</v>
       </c>
-      <c r="B7" s="127"/>
-      <c r="C7" s="85"/>
-      <c r="D7" s="86"/>
-      <c r="E7" s="87"/>
+      <c r="B7" s="51"/>
+      <c r="C7" s="54"/>
+      <c r="D7" s="55"/>
+      <c r="E7" s="56"/>
       <c r="F7" s="30">
         <v>0.51</v>
       </c>
-      <c r="G7" s="47">
+      <c r="G7" s="106">
         <v>50.144999999999996</v>
       </c>
-      <c r="H7" s="48"/>
+      <c r="H7" s="107"/>
     </row>
     <row r="8" spans="1:8" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="126" t="s">
+      <c r="A8" s="50" t="s">
         <v>5</v>
       </c>
-      <c r="B8" s="127"/>
-      <c r="C8" s="130" t="s">
+      <c r="B8" s="51"/>
+      <c r="C8" s="57" t="s">
         <v>57</v>
       </c>
-      <c r="D8" s="131"/>
-      <c r="E8" s="132"/>
+      <c r="D8" s="58"/>
+      <c r="E8" s="59"/>
       <c r="F8" s="30" t="s">
         <v>58</v>
       </c>
-      <c r="G8" s="49" t="s">
+      <c r="G8" s="108" t="s">
         <v>58</v>
       </c>
-      <c r="H8" s="48"/>
+      <c r="H8" s="107"/>
     </row>
     <row r="9" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="126" t="s">
+      <c r="A9" s="50" t="s">
         <v>6</v>
       </c>
-      <c r="B9" s="127"/>
-      <c r="C9" s="85"/>
-      <c r="D9" s="86"/>
-      <c r="E9" s="87"/>
+      <c r="B9" s="51"/>
+      <c r="C9" s="54"/>
+      <c r="D9" s="55"/>
+      <c r="E9" s="56"/>
       <c r="F9" s="30" t="s">
         <v>58</v>
       </c>
-      <c r="G9" s="49" t="s">
+      <c r="G9" s="108" t="s">
         <v>58</v>
       </c>
-      <c r="H9" s="48"/>
+      <c r="H9" s="107"/>
     </row>
     <row r="10" spans="1:8" ht="48.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="128"/>
-      <c r="B10" s="90" t="s">
+      <c r="A10" s="52"/>
+      <c r="B10" s="93" t="s">
         <v>7</v>
       </c>
-      <c r="C10" s="91"/>
-      <c r="D10" s="91"/>
-      <c r="E10" s="92"/>
-      <c r="F10" s="74" t="s">
+      <c r="C10" s="94"/>
+      <c r="D10" s="94"/>
+      <c r="E10" s="95"/>
+      <c r="F10" s="89" t="s">
         <v>45</v>
       </c>
-      <c r="G10" s="99"/>
-      <c r="H10" s="100"/>
+      <c r="G10" s="101"/>
+      <c r="H10" s="102"/>
     </row>
     <row r="11" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="129"/>
-      <c r="B11" s="93"/>
-      <c r="C11" s="94"/>
-      <c r="D11" s="94"/>
-      <c r="E11" s="95"/>
+      <c r="A11" s="53"/>
+      <c r="B11" s="96"/>
+      <c r="C11" s="97"/>
+      <c r="D11" s="97"/>
+      <c r="E11" s="98"/>
       <c r="F11" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G11" s="74" t="s">
+      <c r="G11" s="89" t="s">
         <v>20</v>
       </c>
-      <c r="H11" s="75"/>
+      <c r="H11" s="90"/>
     </row>
     <row r="12" spans="1:8" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="B12" s="101">
+      <c r="B12" s="103">
         <v>2.5</v>
       </c>
-      <c r="C12" s="102"/>
-      <c r="D12" s="102"/>
-      <c r="E12" s="103"/>
+      <c r="C12" s="104"/>
+      <c r="D12" s="104"/>
+      <c r="E12" s="105"/>
       <c r="F12" s="34" t="s">
         <v>58</v>
       </c>
-      <c r="G12" s="88" t="s">
+      <c r="G12" s="91" t="s">
         <v>58</v>
       </c>
-      <c r="H12" s="89"/>
+      <c r="H12" s="92"/>
     </row>
     <row r="13" spans="1:8" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="B13" s="104">
+      <c r="B13" s="66">
         <v>0.25</v>
       </c>
-      <c r="C13" s="105"/>
-      <c r="D13" s="105"/>
-      <c r="E13" s="106"/>
+      <c r="C13" s="67"/>
+      <c r="D13" s="67"/>
+      <c r="E13" s="68"/>
       <c r="F13" s="34" t="s">
         <v>58</v>
       </c>
-      <c r="G13" s="88" t="s">
+      <c r="G13" s="91" t="s">
         <v>58</v>
       </c>
-      <c r="H13" s="89"/>
+      <c r="H13" s="92"/>
     </row>
     <row r="14" spans="1:8" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="B14" s="123">
+      <c r="B14" s="47">
         <v>5</v>
       </c>
-      <c r="C14" s="124"/>
-      <c r="D14" s="124"/>
-      <c r="E14" s="125"/>
+      <c r="C14" s="48"/>
+      <c r="D14" s="48"/>
+      <c r="E14" s="49"/>
       <c r="F14" s="34" t="s">
         <v>58</v>
       </c>
-      <c r="G14" s="88" t="s">
+      <c r="G14" s="91" t="s">
         <v>58</v>
       </c>
-      <c r="H14" s="89"/>
+      <c r="H14" s="92"/>
     </row>
     <row r="15" spans="1:8" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="B15" s="104">
+      <c r="B15" s="66">
         <v>0.15</v>
       </c>
-      <c r="C15" s="105"/>
-      <c r="D15" s="105"/>
-      <c r="E15" s="106"/>
+      <c r="C15" s="67"/>
+      <c r="D15" s="67"/>
+      <c r="E15" s="68"/>
       <c r="F15" s="34" t="s">
         <v>58</v>
       </c>
-      <c r="G15" s="88" t="s">
+      <c r="G15" s="91" t="s">
         <v>58</v>
       </c>
-      <c r="H15" s="89"/>
+      <c r="H15" s="92"/>
     </row>
     <row r="16" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
@@ -3866,16 +3866,16 @@
       <c r="H16" s="2"/>
     </row>
     <row r="17" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="121" t="s">
+      <c r="A17" s="81" t="s">
         <v>36</v>
       </c>
-      <c r="B17" s="122"/>
-      <c r="C17" s="122"/>
-      <c r="D17" s="122"/>
-      <c r="E17" s="96" t="s">
+      <c r="B17" s="82"/>
+      <c r="C17" s="82"/>
+      <c r="D17" s="82"/>
+      <c r="E17" s="99" t="s">
         <v>33</v>
       </c>
-      <c r="F17" s="97"/>
+      <c r="F17" s="100"/>
       <c r="G17" s="21" t="s">
         <v>34</v>
       </c>
@@ -3884,70 +3884,70 @@
       </c>
     </row>
     <row r="18" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="76" t="s">
+      <c r="A18" s="62" t="s">
         <v>37</v>
       </c>
-      <c r="B18" s="77"/>
-      <c r="C18" s="77"/>
-      <c r="D18" s="77"/>
-      <c r="E18" s="98" t="s">
+      <c r="B18" s="63"/>
+      <c r="C18" s="63"/>
+      <c r="D18" s="63"/>
+      <c r="E18" s="65" t="s">
         <v>33</v>
       </c>
-      <c r="F18" s="98"/>
+      <c r="F18" s="65"/>
       <c r="G18" s="23"/>
       <c r="H18" s="24"/>
     </row>
     <row r="19" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="76" t="s">
+      <c r="A19" s="62" t="s">
         <v>38</v>
       </c>
-      <c r="B19" s="77"/>
-      <c r="C19" s="77"/>
-      <c r="D19" s="77"/>
-      <c r="E19" s="98" t="s">
+      <c r="B19" s="63"/>
+      <c r="C19" s="63"/>
+      <c r="D19" s="63"/>
+      <c r="E19" s="65" t="s">
         <v>61</v>
       </c>
-      <c r="F19" s="98"/>
+      <c r="F19" s="65"/>
       <c r="G19" s="23"/>
       <c r="H19" s="24"/>
     </row>
     <row r="20" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="76" t="s">
+      <c r="A20" s="62" t="s">
         <v>39</v>
       </c>
-      <c r="B20" s="77"/>
-      <c r="C20" s="77"/>
-      <c r="D20" s="77"/>
-      <c r="E20" s="98" t="s">
+      <c r="B20" s="63"/>
+      <c r="C20" s="63"/>
+      <c r="D20" s="63"/>
+      <c r="E20" s="65" t="s">
         <v>33</v>
       </c>
-      <c r="F20" s="98"/>
+      <c r="F20" s="65"/>
       <c r="G20" s="23"/>
       <c r="H20" s="24"/>
     </row>
     <row r="21" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="76" t="s">
+      <c r="A21" s="62" t="s">
         <v>40</v>
       </c>
-      <c r="B21" s="77"/>
-      <c r="C21" s="77"/>
-      <c r="D21" s="77"/>
-      <c r="E21" s="98"/>
-      <c r="F21" s="98"/>
+      <c r="B21" s="63"/>
+      <c r="C21" s="63"/>
+      <c r="D21" s="63"/>
+      <c r="E21" s="65"/>
+      <c r="F21" s="65"/>
       <c r="G21" s="23"/>
       <c r="H21" s="24"/>
     </row>
     <row r="22" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="112" t="s">
+      <c r="A22" s="72" t="s">
         <v>41</v>
       </c>
-      <c r="B22" s="113"/>
-      <c r="C22" s="113"/>
-      <c r="D22" s="113"/>
-      <c r="E22" s="110" t="s">
+      <c r="B22" s="73"/>
+      <c r="C22" s="73"/>
+      <c r="D22" s="73"/>
+      <c r="E22" s="69" t="s">
         <v>62</v>
       </c>
-      <c r="F22" s="111"/>
+      <c r="F22" s="70"/>
       <c r="G22" s="25"/>
       <c r="H22" s="26"/>
     </row>
@@ -3989,54 +3989,54 @@
       <c r="H25" s="16"/>
     </row>
     <row r="26" spans="1:8" ht="60.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="114" t="s">
+      <c r="A26" s="74" t="s">
         <v>21</v>
       </c>
-      <c r="B26" s="115"/>
-      <c r="C26" s="115"/>
-      <c r="D26" s="80" t="s">
+      <c r="B26" s="75"/>
+      <c r="C26" s="75"/>
+      <c r="D26" s="71" t="s">
         <v>17</v>
       </c>
-      <c r="E26" s="80"/>
+      <c r="E26" s="71"/>
       <c r="F26" s="18" t="s">
         <v>31</v>
       </c>
-      <c r="G26" s="80" t="s">
+      <c r="G26" s="71" t="s">
         <v>17</v>
       </c>
-      <c r="H26" s="81"/>
+      <c r="H26" s="85"/>
     </row>
     <row r="27" spans="1:8" ht="60.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="116" t="s">
+      <c r="A27" s="76" t="s">
         <v>22</v>
       </c>
-      <c r="B27" s="117"/>
-      <c r="C27" s="117"/>
-      <c r="D27" s="109" t="s">
+      <c r="B27" s="77"/>
+      <c r="C27" s="77"/>
+      <c r="D27" s="64" t="s">
         <v>17</v>
       </c>
-      <c r="E27" s="109"/>
+      <c r="E27" s="64"/>
       <c r="F27" s="19" t="s">
         <v>18</v>
       </c>
-      <c r="G27" s="78" t="s">
+      <c r="G27" s="83" t="s">
         <v>59</v>
       </c>
-      <c r="H27" s="79"/>
+      <c r="H27" s="84"/>
     </row>
     <row r="28" spans="1:8" ht="43.15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="82" t="s">
+      <c r="A28" s="86" t="s">
         <v>16</v>
       </c>
-      <c r="B28" s="83"/>
-      <c r="C28" s="83"/>
-      <c r="D28" s="83"/>
-      <c r="E28" s="84"/>
-      <c r="F28" s="118" t="s">
+      <c r="B28" s="87"/>
+      <c r="C28" s="87"/>
+      <c r="D28" s="87"/>
+      <c r="E28" s="88"/>
+      <c r="F28" s="78" t="s">
         <v>9</v>
       </c>
-      <c r="G28" s="119"/>
-      <c r="H28" s="120"/>
+      <c r="G28" s="79"/>
+      <c r="H28" s="80"/>
     </row>
     <row r="29" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="36" t="s">
@@ -4049,18 +4049,40 @@
       </c>
       <c r="E29" s="39"/>
       <c r="F29" s="4"/>
-      <c r="G29" s="107"/>
-      <c r="H29" s="108"/>
+      <c r="G29" s="60"/>
+      <c r="H29" s="61"/>
     </row>
   </sheetData>
   <mergeCells count="52">
-    <mergeCell ref="B14:E14"/>
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="A10:A11"/>
-    <mergeCell ref="C7:E7"/>
-    <mergeCell ref="C8:E8"/>
+    <mergeCell ref="G7:H7"/>
+    <mergeCell ref="G8:H8"/>
+    <mergeCell ref="G9:H9"/>
+    <mergeCell ref="G5:H5"/>
+    <mergeCell ref="A1:H1"/>
+    <mergeCell ref="A2:C2"/>
+    <mergeCell ref="D2:H2"/>
+    <mergeCell ref="A3:C3"/>
+    <mergeCell ref="D3:H3"/>
+    <mergeCell ref="A4:E4"/>
+    <mergeCell ref="A6:E6"/>
+    <mergeCell ref="F4:H4"/>
+    <mergeCell ref="G6:H6"/>
+    <mergeCell ref="A20:D20"/>
+    <mergeCell ref="G27:H27"/>
+    <mergeCell ref="G26:H26"/>
+    <mergeCell ref="A28:E28"/>
+    <mergeCell ref="C9:E9"/>
+    <mergeCell ref="G11:H11"/>
+    <mergeCell ref="G12:H12"/>
+    <mergeCell ref="G13:H13"/>
+    <mergeCell ref="G14:H14"/>
+    <mergeCell ref="G15:H15"/>
+    <mergeCell ref="B10:E11"/>
+    <mergeCell ref="E17:F17"/>
+    <mergeCell ref="E18:F18"/>
+    <mergeCell ref="F10:H10"/>
+    <mergeCell ref="B12:E12"/>
+    <mergeCell ref="B13:E13"/>
     <mergeCell ref="G29:H29"/>
     <mergeCell ref="A21:D21"/>
     <mergeCell ref="D27:E27"/>
@@ -4077,35 +4099,13 @@
     <mergeCell ref="A17:D17"/>
     <mergeCell ref="A18:D18"/>
     <mergeCell ref="A19:D19"/>
-    <mergeCell ref="A20:D20"/>
-    <mergeCell ref="G27:H27"/>
-    <mergeCell ref="G26:H26"/>
-    <mergeCell ref="A28:E28"/>
-    <mergeCell ref="C9:E9"/>
-    <mergeCell ref="G11:H11"/>
-    <mergeCell ref="G12:H12"/>
-    <mergeCell ref="G13:H13"/>
-    <mergeCell ref="G14:H14"/>
-    <mergeCell ref="G15:H15"/>
-    <mergeCell ref="B10:E11"/>
-    <mergeCell ref="E17:F17"/>
-    <mergeCell ref="E18:F18"/>
-    <mergeCell ref="F10:H10"/>
-    <mergeCell ref="B12:E12"/>
-    <mergeCell ref="B13:E13"/>
-    <mergeCell ref="G7:H7"/>
-    <mergeCell ref="G8:H8"/>
-    <mergeCell ref="G9:H9"/>
-    <mergeCell ref="G5:H5"/>
-    <mergeCell ref="A1:H1"/>
-    <mergeCell ref="A2:C2"/>
-    <mergeCell ref="D2:H2"/>
-    <mergeCell ref="A3:C3"/>
-    <mergeCell ref="D3:H3"/>
-    <mergeCell ref="A4:E4"/>
-    <mergeCell ref="A6:E6"/>
-    <mergeCell ref="F4:H4"/>
-    <mergeCell ref="G6:H6"/>
+    <mergeCell ref="B14:E14"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="C7:E7"/>
+    <mergeCell ref="C8:E8"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4300,58 +4300,58 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="32.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="52" t="s">
+      <c r="A1" s="111" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="53"/>
-      <c r="C1" s="53"/>
-      <c r="D1" s="53"/>
-      <c r="E1" s="53"/>
-      <c r="F1" s="53"/>
-      <c r="G1" s="53"/>
-      <c r="H1" s="54"/>
+      <c r="B1" s="112"/>
+      <c r="C1" s="112"/>
+      <c r="D1" s="112"/>
+      <c r="E1" s="112"/>
+      <c r="F1" s="112"/>
+      <c r="G1" s="112"/>
+      <c r="H1" s="113"/>
     </row>
     <row r="2" spans="1:8" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="55" t="s">
+      <c r="A2" s="114" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="56"/>
-      <c r="C2" s="57"/>
-      <c r="D2" s="58" t="s">
+      <c r="B2" s="115"/>
+      <c r="C2" s="116"/>
+      <c r="D2" s="117" t="s">
         <v>69</v>
       </c>
-      <c r="E2" s="59"/>
-      <c r="F2" s="59"/>
-      <c r="G2" s="59"/>
-      <c r="H2" s="60"/>
+      <c r="E2" s="118"/>
+      <c r="F2" s="118"/>
+      <c r="G2" s="118"/>
+      <c r="H2" s="119"/>
     </row>
     <row r="3" spans="1:8" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="61" t="s">
+      <c r="A3" s="120" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="62"/>
-      <c r="C3" s="63"/>
-      <c r="D3" s="134" t="s">
+      <c r="B3" s="121"/>
+      <c r="C3" s="122"/>
+      <c r="D3" s="144" t="s">
         <v>66</v>
       </c>
-      <c r="E3" s="135"/>
-      <c r="F3" s="135"/>
-      <c r="G3" s="135"/>
-      <c r="H3" s="136"/>
+      <c r="E3" s="145"/>
+      <c r="F3" s="145"/>
+      <c r="G3" s="145"/>
+      <c r="H3" s="146"/>
     </row>
     <row r="4" spans="1:8" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="133" t="s">
+      <c r="A4" s="143" t="s">
         <v>64</v>
       </c>
-      <c r="B4" s="68"/>
-      <c r="C4" s="68"/>
-      <c r="D4" s="68"/>
-      <c r="E4" s="68"/>
-      <c r="F4" s="72" t="s">
+      <c r="B4" s="127"/>
+      <c r="C4" s="127"/>
+      <c r="D4" s="127"/>
+      <c r="E4" s="127"/>
+      <c r="F4" s="131" t="s">
         <v>42</v>
       </c>
-      <c r="G4" s="72"/>
-      <c r="H4" s="73"/>
+      <c r="G4" s="131"/>
+      <c r="H4" s="132"/>
     </row>
     <row r="5" spans="1:8" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="27" t="s">
@@ -4362,176 +4362,176 @@
       <c r="D5" s="9"/>
       <c r="E5" s="9"/>
       <c r="F5" s="10"/>
-      <c r="G5" s="50" t="s">
+      <c r="G5" s="109" t="s">
         <v>65</v>
       </c>
-      <c r="H5" s="51"/>
+      <c r="H5" s="110"/>
     </row>
     <row r="6" spans="1:8" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="69" t="s">
+      <c r="A6" s="128" t="s">
         <v>3</v>
       </c>
-      <c r="B6" s="70"/>
-      <c r="C6" s="70"/>
-      <c r="D6" s="70"/>
-      <c r="E6" s="71"/>
+      <c r="B6" s="129"/>
+      <c r="C6" s="129"/>
+      <c r="D6" s="129"/>
+      <c r="E6" s="130"/>
       <c r="F6" s="20" t="s">
         <v>10</v>
       </c>
-      <c r="G6" s="74" t="s">
+      <c r="G6" s="89" t="s">
         <v>11</v>
       </c>
-      <c r="H6" s="75"/>
+      <c r="H6" s="90"/>
     </row>
     <row r="7" spans="1:8" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="126" t="s">
+      <c r="A7" s="50" t="s">
         <v>4</v>
       </c>
-      <c r="B7" s="127"/>
-      <c r="C7" s="137"/>
-      <c r="D7" s="138"/>
-      <c r="E7" s="139"/>
+      <c r="B7" s="51"/>
+      <c r="C7" s="140"/>
+      <c r="D7" s="141"/>
+      <c r="E7" s="142"/>
       <c r="F7" s="30">
         <v>1.5049999999999999</v>
       </c>
-      <c r="G7" s="47">
+      <c r="G7" s="106">
         <v>100.00700000000001</v>
       </c>
-      <c r="H7" s="48"/>
+      <c r="H7" s="107"/>
     </row>
     <row r="8" spans="1:8" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="126" t="s">
+      <c r="A8" s="50" t="s">
         <v>5</v>
       </c>
-      <c r="B8" s="127"/>
-      <c r="C8" s="140" t="s">
+      <c r="B8" s="51"/>
+      <c r="C8" s="136" t="s">
         <v>67</v>
       </c>
-      <c r="D8" s="140"/>
-      <c r="E8" s="140"/>
+      <c r="D8" s="136"/>
+      <c r="E8" s="136"/>
       <c r="F8" s="41" t="s">
         <v>58</v>
       </c>
-      <c r="G8" s="47" t="s">
+      <c r="G8" s="106" t="s">
         <v>58</v>
       </c>
-      <c r="H8" s="48"/>
+      <c r="H8" s="107"/>
     </row>
     <row r="9" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="126" t="s">
+      <c r="A9" s="50" t="s">
         <v>6</v>
       </c>
-      <c r="B9" s="127"/>
-      <c r="C9" s="141"/>
-      <c r="D9" s="142"/>
-      <c r="E9" s="143"/>
+      <c r="B9" s="51"/>
+      <c r="C9" s="137"/>
+      <c r="D9" s="138"/>
+      <c r="E9" s="139"/>
       <c r="F9" s="40" t="s">
         <v>58</v>
       </c>
-      <c r="G9" s="47" t="s">
+      <c r="G9" s="106" t="s">
         <v>58</v>
       </c>
-      <c r="H9" s="48"/>
+      <c r="H9" s="107"/>
     </row>
     <row r="10" spans="1:8" ht="48.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="128"/>
-      <c r="B10" s="90" t="s">
+      <c r="A10" s="52"/>
+      <c r="B10" s="93" t="s">
         <v>43</v>
       </c>
-      <c r="C10" s="91"/>
-      <c r="D10" s="91"/>
-      <c r="E10" s="92"/>
-      <c r="F10" s="74" t="s">
+      <c r="C10" s="94"/>
+      <c r="D10" s="94"/>
+      <c r="E10" s="95"/>
+      <c r="F10" s="89" t="s">
         <v>44</v>
       </c>
-      <c r="G10" s="99"/>
-      <c r="H10" s="100"/>
+      <c r="G10" s="101"/>
+      <c r="H10" s="102"/>
     </row>
     <row r="11" spans="1:8" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="129"/>
-      <c r="B11" s="93"/>
-      <c r="C11" s="94"/>
-      <c r="D11" s="94"/>
-      <c r="E11" s="95"/>
+      <c r="A11" s="53"/>
+      <c r="B11" s="96"/>
+      <c r="C11" s="97"/>
+      <c r="D11" s="97"/>
+      <c r="E11" s="98"/>
       <c r="F11" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G11" s="74" t="s">
+      <c r="G11" s="89" t="s">
         <v>20</v>
       </c>
-      <c r="H11" s="75"/>
+      <c r="H11" s="90"/>
     </row>
     <row r="12" spans="1:8" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="B12" s="101">
+      <c r="B12" s="103">
         <v>7.5</v>
       </c>
-      <c r="C12" s="102"/>
-      <c r="D12" s="102"/>
-      <c r="E12" s="103"/>
+      <c r="C12" s="104"/>
+      <c r="D12" s="104"/>
+      <c r="E12" s="105"/>
       <c r="F12" s="34" t="s">
         <v>58</v>
       </c>
-      <c r="G12" s="88" t="s">
+      <c r="G12" s="91" t="s">
         <v>58</v>
       </c>
-      <c r="H12" s="89"/>
+      <c r="H12" s="92"/>
     </row>
     <row r="13" spans="1:8" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="B13" s="104">
+      <c r="B13" s="66">
         <v>0.75</v>
       </c>
-      <c r="C13" s="105"/>
-      <c r="D13" s="105"/>
-      <c r="E13" s="106"/>
+      <c r="C13" s="67"/>
+      <c r="D13" s="67"/>
+      <c r="E13" s="68"/>
       <c r="F13" s="34" t="s">
         <v>58</v>
       </c>
-      <c r="G13" s="88" t="s">
+      <c r="G13" s="91" t="s">
         <v>58</v>
       </c>
-      <c r="H13" s="89"/>
+      <c r="H13" s="92"/>
     </row>
     <row r="14" spans="1:8" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="B14" s="123">
+      <c r="B14" s="47">
         <v>15</v>
       </c>
-      <c r="C14" s="124"/>
-      <c r="D14" s="124"/>
-      <c r="E14" s="125"/>
+      <c r="C14" s="48"/>
+      <c r="D14" s="48"/>
+      <c r="E14" s="49"/>
       <c r="F14" s="34" t="s">
         <v>58</v>
       </c>
-      <c r="G14" s="88" t="s">
+      <c r="G14" s="91" t="s">
         <v>58</v>
       </c>
-      <c r="H14" s="89"/>
+      <c r="H14" s="92"/>
     </row>
     <row r="15" spans="1:8" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="B15" s="104">
+      <c r="B15" s="66">
         <v>0.45</v>
       </c>
-      <c r="C15" s="105"/>
-      <c r="D15" s="105"/>
-      <c r="E15" s="106"/>
+      <c r="C15" s="67"/>
+      <c r="D15" s="67"/>
+      <c r="E15" s="68"/>
       <c r="F15" s="34" t="s">
         <v>58</v>
       </c>
-      <c r="G15" s="88" t="s">
+      <c r="G15" s="91" t="s">
         <v>58</v>
       </c>
-      <c r="H15" s="89"/>
+      <c r="H15" s="92"/>
     </row>
     <row r="16" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
@@ -4540,16 +4540,16 @@
       <c r="H16" s="2"/>
     </row>
     <row r="17" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="121" t="s">
+      <c r="A17" s="81" t="s">
         <v>36</v>
       </c>
-      <c r="B17" s="122"/>
-      <c r="C17" s="122"/>
-      <c r="D17" s="122"/>
-      <c r="E17" s="96" t="s">
+      <c r="B17" s="82"/>
+      <c r="C17" s="82"/>
+      <c r="D17" s="82"/>
+      <c r="E17" s="99" t="s">
         <v>33</v>
       </c>
-      <c r="F17" s="97"/>
+      <c r="F17" s="100"/>
       <c r="G17" s="21" t="s">
         <v>34</v>
       </c>
@@ -4558,70 +4558,70 @@
       </c>
     </row>
     <row r="18" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="76" t="s">
+      <c r="A18" s="62" t="s">
         <v>37</v>
       </c>
-      <c r="B18" s="77"/>
-      <c r="C18" s="77"/>
-      <c r="D18" s="77"/>
-      <c r="E18" s="98" t="s">
+      <c r="B18" s="63"/>
+      <c r="C18" s="63"/>
+      <c r="D18" s="63"/>
+      <c r="E18" s="65" t="s">
         <v>33</v>
       </c>
-      <c r="F18" s="98"/>
+      <c r="F18" s="65"/>
       <c r="G18" s="23"/>
       <c r="H18" s="24"/>
     </row>
     <row r="19" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="76" t="s">
+      <c r="A19" s="62" t="s">
         <v>38</v>
       </c>
-      <c r="B19" s="77"/>
-      <c r="C19" s="77"/>
-      <c r="D19" s="77"/>
-      <c r="E19" s="98" t="s">
+      <c r="B19" s="63"/>
+      <c r="C19" s="63"/>
+      <c r="D19" s="63"/>
+      <c r="E19" s="65" t="s">
         <v>33</v>
       </c>
-      <c r="F19" s="98"/>
+      <c r="F19" s="65"/>
       <c r="G19" s="23"/>
       <c r="H19" s="24"/>
     </row>
     <row r="20" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="76" t="s">
+      <c r="A20" s="62" t="s">
         <v>39</v>
       </c>
-      <c r="B20" s="77"/>
-      <c r="C20" s="77"/>
-      <c r="D20" s="77"/>
-      <c r="E20" s="98" t="s">
+      <c r="B20" s="63"/>
+      <c r="C20" s="63"/>
+      <c r="D20" s="63"/>
+      <c r="E20" s="65" t="s">
         <v>33</v>
       </c>
-      <c r="F20" s="98"/>
+      <c r="F20" s="65"/>
       <c r="G20" s="23"/>
       <c r="H20" s="24"/>
     </row>
     <row r="21" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="76" t="s">
+      <c r="A21" s="62" t="s">
         <v>40</v>
       </c>
-      <c r="B21" s="77"/>
-      <c r="C21" s="77"/>
-      <c r="D21" s="77"/>
-      <c r="E21" s="98"/>
-      <c r="F21" s="98"/>
+      <c r="B21" s="63"/>
+      <c r="C21" s="63"/>
+      <c r="D21" s="63"/>
+      <c r="E21" s="65"/>
+      <c r="F21" s="65"/>
       <c r="G21" s="23"/>
       <c r="H21" s="24"/>
     </row>
     <row r="22" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="144" t="s">
+      <c r="A22" s="135" t="s">
         <v>72</v>
       </c>
-      <c r="B22" s="113"/>
-      <c r="C22" s="113"/>
-      <c r="D22" s="113"/>
-      <c r="E22" s="110" t="s">
+      <c r="B22" s="73"/>
+      <c r="C22" s="73"/>
+      <c r="D22" s="73"/>
+      <c r="E22" s="69" t="s">
         <v>51</v>
       </c>
-      <c r="F22" s="111"/>
+      <c r="F22" s="70"/>
       <c r="G22" s="25"/>
       <c r="H22" s="26"/>
     </row>
@@ -4663,71 +4663,114 @@
       <c r="H25" s="16"/>
     </row>
     <row r="26" spans="1:8" ht="60.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="114" t="s">
+      <c r="A26" s="74" t="s">
         <v>21</v>
       </c>
-      <c r="B26" s="115"/>
-      <c r="C26" s="115"/>
-      <c r="D26" s="80" t="s">
+      <c r="B26" s="75"/>
+      <c r="C26" s="75"/>
+      <c r="D26" s="71" t="s">
         <v>17</v>
       </c>
-      <c r="E26" s="80"/>
+      <c r="E26" s="71"/>
       <c r="F26" s="18" t="s">
         <v>31</v>
       </c>
-      <c r="G26" s="80" t="s">
+      <c r="G26" s="71" t="s">
         <v>71</v>
       </c>
-      <c r="H26" s="81"/>
+      <c r="H26" s="85"/>
     </row>
     <row r="27" spans="1:8" ht="60.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="116" t="s">
+      <c r="A27" s="76" t="s">
         <v>22</v>
       </c>
-      <c r="B27" s="117"/>
-      <c r="C27" s="117"/>
-      <c r="D27" s="109" t="s">
+      <c r="B27" s="77"/>
+      <c r="C27" s="77"/>
+      <c r="D27" s="64" t="s">
         <v>17</v>
       </c>
-      <c r="E27" s="109"/>
+      <c r="E27" s="64"/>
       <c r="F27" s="19" t="s">
         <v>18</v>
       </c>
-      <c r="G27" s="78" t="s">
+      <c r="G27" s="83" t="s">
         <v>70</v>
       </c>
-      <c r="H27" s="79"/>
+      <c r="H27" s="84"/>
     </row>
     <row r="28" spans="1:8" ht="43.15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="82" t="s">
+      <c r="A28" s="86" t="s">
         <v>16</v>
       </c>
-      <c r="B28" s="83"/>
-      <c r="C28" s="83"/>
-      <c r="D28" s="83"/>
-      <c r="E28" s="84"/>
-      <c r="F28" s="118" t="s">
+      <c r="B28" s="87"/>
+      <c r="C28" s="87"/>
+      <c r="D28" s="87"/>
+      <c r="E28" s="88"/>
+      <c r="F28" s="78" t="s">
         <v>9</v>
       </c>
-      <c r="G28" s="119"/>
-      <c r="H28" s="120"/>
+      <c r="G28" s="79"/>
+      <c r="H28" s="80"/>
     </row>
     <row r="29" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="145" t="s">
+      <c r="A29" s="133" t="s">
         <v>68</v>
       </c>
-      <c r="B29" s="146"/>
-      <c r="C29" s="146"/>
+      <c r="B29" s="134"/>
+      <c r="C29" s="134"/>
       <c r="D29" s="38">
         <v>45405</v>
       </c>
       <c r="E29" s="39"/>
       <c r="F29" s="4"/>
-      <c r="G29" s="107"/>
-      <c r="H29" s="108"/>
+      <c r="G29" s="60"/>
+      <c r="H29" s="61"/>
     </row>
   </sheetData>
   <mergeCells count="53">
+    <mergeCell ref="A4:E4"/>
+    <mergeCell ref="F4:H4"/>
+    <mergeCell ref="A1:H1"/>
+    <mergeCell ref="A2:C2"/>
+    <mergeCell ref="D2:H2"/>
+    <mergeCell ref="A3:C3"/>
+    <mergeCell ref="D3:H3"/>
+    <mergeCell ref="G5:H5"/>
+    <mergeCell ref="A6:E6"/>
+    <mergeCell ref="G6:H6"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="C7:E7"/>
+    <mergeCell ref="G7:H7"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="C8:E8"/>
+    <mergeCell ref="G8:H8"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="C9:E9"/>
+    <mergeCell ref="G9:H9"/>
+    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="B10:E11"/>
+    <mergeCell ref="F10:H10"/>
+    <mergeCell ref="G11:H11"/>
+    <mergeCell ref="B12:E12"/>
+    <mergeCell ref="G12:H12"/>
+    <mergeCell ref="B13:E13"/>
+    <mergeCell ref="G13:H13"/>
+    <mergeCell ref="B14:E14"/>
+    <mergeCell ref="G14:H14"/>
+    <mergeCell ref="B15:E15"/>
+    <mergeCell ref="G15:H15"/>
+    <mergeCell ref="A17:D17"/>
+    <mergeCell ref="E17:F17"/>
+    <mergeCell ref="A18:D18"/>
+    <mergeCell ref="E18:F18"/>
+    <mergeCell ref="A19:D19"/>
+    <mergeCell ref="E19:F19"/>
+    <mergeCell ref="A20:D20"/>
+    <mergeCell ref="E20:F20"/>
+    <mergeCell ref="A21:D21"/>
+    <mergeCell ref="E21:F21"/>
+    <mergeCell ref="A22:D22"/>
+    <mergeCell ref="E22:F22"/>
     <mergeCell ref="A28:E28"/>
     <mergeCell ref="F28:H28"/>
     <mergeCell ref="A29:C29"/>
@@ -4738,49 +4781,6 @@
     <mergeCell ref="A27:C27"/>
     <mergeCell ref="D27:E27"/>
     <mergeCell ref="G27:H27"/>
-    <mergeCell ref="A20:D20"/>
-    <mergeCell ref="E20:F20"/>
-    <mergeCell ref="A21:D21"/>
-    <mergeCell ref="E21:F21"/>
-    <mergeCell ref="A22:D22"/>
-    <mergeCell ref="E22:F22"/>
-    <mergeCell ref="A17:D17"/>
-    <mergeCell ref="E17:F17"/>
-    <mergeCell ref="A18:D18"/>
-    <mergeCell ref="E18:F18"/>
-    <mergeCell ref="A19:D19"/>
-    <mergeCell ref="E19:F19"/>
-    <mergeCell ref="B13:E13"/>
-    <mergeCell ref="G13:H13"/>
-    <mergeCell ref="B14:E14"/>
-    <mergeCell ref="G14:H14"/>
-    <mergeCell ref="B15:E15"/>
-    <mergeCell ref="G15:H15"/>
-    <mergeCell ref="A10:A11"/>
-    <mergeCell ref="B10:E11"/>
-    <mergeCell ref="F10:H10"/>
-    <mergeCell ref="G11:H11"/>
-    <mergeCell ref="B12:E12"/>
-    <mergeCell ref="G12:H12"/>
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="C8:E8"/>
-    <mergeCell ref="G8:H8"/>
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="C9:E9"/>
-    <mergeCell ref="G9:H9"/>
-    <mergeCell ref="G5:H5"/>
-    <mergeCell ref="A6:E6"/>
-    <mergeCell ref="G6:H6"/>
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="C7:E7"/>
-    <mergeCell ref="G7:H7"/>
-    <mergeCell ref="A4:E4"/>
-    <mergeCell ref="F4:H4"/>
-    <mergeCell ref="A1:H1"/>
-    <mergeCell ref="A2:C2"/>
-    <mergeCell ref="D2:H2"/>
-    <mergeCell ref="A3:C3"/>
-    <mergeCell ref="D3:H3"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4957,22 +4957,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:L22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="F21" sqref="F21"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="H17" sqref="H17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="19" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="21.6640625" customWidth="1"/>
-    <col min="2" max="2" width="22.33203125" customWidth="1"/>
-    <col min="3" max="3" width="17" customWidth="1"/>
-    <col min="4" max="4" width="16.6640625" customWidth="1"/>
-    <col min="5" max="5" width="9.6640625" customWidth="1"/>
-    <col min="6" max="6" width="18.6640625" customWidth="1"/>
-    <col min="7" max="7" width="24.6640625" customWidth="1"/>
-    <col min="8" max="8" width="11" customWidth="1"/>
-    <col min="9" max="9" width="10.1640625" customWidth="1"/>
-    <col min="12" max="12" width="9.33203125" style="35"/>
+    <col min="2" max="2" width="25" customWidth="1"/>
+    <col min="12" max="12" width="19" style="35"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="25.5" x14ac:dyDescent="0.2">
@@ -5011,10 +5003,12 @@
       <c r="C2" s="8">
         <v>13.712999999999999</v>
       </c>
-      <c r="D2" s="8"/>
+      <c r="D2" s="8">
+        <v>113.824</v>
+      </c>
       <c r="E2" s="8">
         <f>D2-C2</f>
-        <v>-13.712999999999999</v>
+        <v>100.111</v>
       </c>
       <c r="G2" s="46"/>
       <c r="H2" s="45"/>
@@ -5033,10 +5027,12 @@
       <c r="C3" s="8">
         <v>13.683</v>
       </c>
-      <c r="D3" s="8"/>
+      <c r="D3" s="8">
+        <v>113.967</v>
+      </c>
       <c r="E3" s="8">
         <f t="shared" ref="E3:E20" si="0">D3-C3</f>
-        <v>-13.683</v>
+        <v>100.28399999999999</v>
       </c>
       <c r="G3" s="46"/>
       <c r="H3" s="45"/>
@@ -5055,10 +5051,12 @@
       <c r="C4" s="8">
         <v>13.631</v>
       </c>
-      <c r="D4" s="8"/>
+      <c r="D4" s="8">
+        <v>113.726</v>
+      </c>
       <c r="E4" s="8">
         <f t="shared" si="0"/>
-        <v>-13.631</v>
+        <v>100.095</v>
       </c>
       <c r="F4">
         <v>1.512</v>
@@ -5080,10 +5078,12 @@
       <c r="C5" s="8">
         <v>13.709</v>
       </c>
-      <c r="D5" s="8"/>
+      <c r="D5" s="8">
+        <v>113.895</v>
+      </c>
       <c r="E5" s="8">
         <f t="shared" si="0"/>
-        <v>-13.709</v>
+        <v>100.18599999999999</v>
       </c>
       <c r="F5">
         <v>1.512</v>
@@ -5105,10 +5105,12 @@
       <c r="C6" s="8">
         <v>13.734999999999999</v>
       </c>
-      <c r="D6" s="8"/>
+      <c r="D6" s="8">
+        <v>113.904</v>
+      </c>
       <c r="E6" s="8">
         <f t="shared" si="0"/>
-        <v>-13.734999999999999</v>
+        <v>100.169</v>
       </c>
       <c r="F6">
         <v>1.512</v>
@@ -5128,10 +5130,12 @@
       <c r="C7" s="8">
         <v>13.641</v>
       </c>
-      <c r="D7" s="8"/>
+      <c r="D7" s="8">
+        <v>113.709</v>
+      </c>
       <c r="E7" s="8">
         <f t="shared" si="0"/>
-        <v>-13.641</v>
+        <v>100.068</v>
       </c>
       <c r="F7">
         <v>1.5109999999999999</v>
@@ -5151,10 +5155,12 @@
       <c r="C8" s="8">
         <v>13.696</v>
       </c>
-      <c r="D8" s="8"/>
+      <c r="D8" s="8">
+        <v>113.705</v>
+      </c>
       <c r="E8" s="8">
         <f t="shared" si="0"/>
-        <v>-13.696</v>
+        <v>100.009</v>
       </c>
       <c r="F8">
         <v>1.512</v>
@@ -5174,10 +5180,12 @@
       <c r="C9" s="8">
         <v>13.64</v>
       </c>
-      <c r="D9" s="8"/>
+      <c r="D9" s="8">
+        <v>113.79</v>
+      </c>
       <c r="E9" s="8">
         <f t="shared" si="0"/>
-        <v>-13.64</v>
+        <v>100.15</v>
       </c>
       <c r="F9">
         <v>1.5109999999999999</v>
@@ -5197,10 +5205,12 @@
       <c r="C10" s="8">
         <v>13.644</v>
       </c>
-      <c r="D10" s="8"/>
+      <c r="D10" s="8">
+        <v>113.761</v>
+      </c>
       <c r="E10" s="8">
         <f t="shared" si="0"/>
-        <v>-13.644</v>
+        <v>100.11699999999999</v>
       </c>
       <c r="F10">
         <v>1.514</v>
@@ -5220,10 +5230,12 @@
       <c r="C11" s="8">
         <v>13.696999999999999</v>
       </c>
-      <c r="D11" s="8"/>
+      <c r="D11" s="8">
+        <v>113.729</v>
+      </c>
       <c r="E11" s="8">
         <f t="shared" si="0"/>
-        <v>-13.696999999999999</v>
+        <v>100.032</v>
       </c>
       <c r="F11">
         <v>1.514</v>
@@ -5243,10 +5255,12 @@
       <c r="C12" s="8">
         <v>13.739000000000001</v>
       </c>
-      <c r="D12" s="8"/>
+      <c r="D12" s="8">
+        <v>113.84699999999999</v>
+      </c>
       <c r="E12" s="8">
         <f t="shared" si="0"/>
-        <v>-13.739000000000001</v>
+        <v>100.10799999999999</v>
       </c>
       <c r="F12">
         <v>1.514</v>
@@ -5266,10 +5280,12 @@
       <c r="C13" s="8">
         <v>13.746</v>
       </c>
-      <c r="D13" s="8"/>
+      <c r="D13" s="8">
+        <v>113.82299999999999</v>
+      </c>
       <c r="E13" s="8">
         <f t="shared" si="0"/>
-        <v>-13.746</v>
+        <v>100.077</v>
       </c>
       <c r="F13">
         <v>1.5109999999999999</v>
@@ -5289,10 +5305,12 @@
       <c r="C14" s="8">
         <v>13.744999999999999</v>
       </c>
-      <c r="D14" s="8"/>
+      <c r="D14" s="8">
+        <v>113.88200000000001</v>
+      </c>
       <c r="E14" s="8">
         <f t="shared" si="0"/>
-        <v>-13.744999999999999</v>
+        <v>100.137</v>
       </c>
       <c r="F14">
         <v>1.5109999999999999</v>
@@ -5312,10 +5330,12 @@
       <c r="C15" s="8">
         <v>13.673</v>
       </c>
-      <c r="D15" s="8"/>
+      <c r="D15" s="8">
+        <v>113.73399999999999</v>
+      </c>
       <c r="E15" s="8">
         <f t="shared" si="0"/>
-        <v>-13.673</v>
+        <v>100.06099999999999</v>
       </c>
       <c r="F15">
         <v>1.514</v>
@@ -5335,10 +5355,12 @@
       <c r="C16" s="8">
         <v>13.69</v>
       </c>
-      <c r="D16" s="8"/>
+      <c r="D16" s="8">
+        <v>113.812</v>
+      </c>
       <c r="E16" s="8">
         <f t="shared" si="0"/>
-        <v>-13.69</v>
+        <v>100.122</v>
       </c>
       <c r="F16">
         <v>1.514</v>
@@ -5358,10 +5380,12 @@
       <c r="C17" s="8">
         <v>13.683999999999999</v>
       </c>
-      <c r="D17" s="8"/>
+      <c r="D17" s="8">
+        <v>113.744</v>
+      </c>
       <c r="E17" s="8">
         <f t="shared" si="0"/>
-        <v>-13.683999999999999</v>
+        <v>100.06</v>
       </c>
       <c r="F17">
         <v>1.5109999999999999</v>
@@ -5381,10 +5405,12 @@
       <c r="C18" s="8">
         <v>13.762</v>
       </c>
-      <c r="D18" s="8"/>
+      <c r="D18" s="8">
+        <v>113.89700000000001</v>
+      </c>
       <c r="E18" s="8">
         <f t="shared" si="0"/>
-        <v>-13.762</v>
+        <v>100.13500000000001</v>
       </c>
       <c r="F18">
         <v>1.5109999999999999</v>
@@ -5459,7 +5485,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <pageSetup orientation="landscape" r:id="rId1"/>
   <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>